--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.91334466666666</v>
+        <v>10.61535666666667</v>
       </c>
       <c r="H2">
-        <v>185.740034</v>
+        <v>31.84607</v>
       </c>
       <c r="I2">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="J2">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.19677366666667</v>
+        <v>14.65767833333333</v>
       </c>
       <c r="N2">
-        <v>213.590321</v>
+        <v>43.973035</v>
       </c>
       <c r="O2">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="P2">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
       <c r="Q2">
-        <v>4408.03038717899</v>
+        <v>155.5964834136056</v>
       </c>
       <c r="R2">
-        <v>39672.27348461092</v>
+        <v>1400.36835072245</v>
       </c>
       <c r="S2">
-        <v>0.2996115702273656</v>
+        <v>0.03372867627388113</v>
       </c>
       <c r="T2">
-        <v>0.2996115702273656</v>
+        <v>0.03372867627388113</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.91334466666666</v>
+        <v>10.61535666666667</v>
       </c>
       <c r="H3">
-        <v>185.740034</v>
+        <v>31.84607</v>
       </c>
       <c r="I3">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="J3">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.69537100000001</v>
+        <v>31.695371</v>
       </c>
       <c r="N3">
-        <v>95.08611300000001</v>
+        <v>95.086113</v>
       </c>
       <c r="O3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="P3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="Q3">
-        <v>1962.366429060871</v>
+        <v>336.4576678473233</v>
       </c>
       <c r="R3">
-        <v>17661.29786154784</v>
+        <v>3028.11901062591</v>
       </c>
       <c r="S3">
-        <v>0.1333810422184193</v>
+        <v>0.07293398610122499</v>
       </c>
       <c r="T3">
-        <v>0.1333810422184193</v>
+        <v>0.07293398610122499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.91334466666666</v>
+        <v>10.61535666666667</v>
       </c>
       <c r="H4">
-        <v>185.740034</v>
+        <v>31.84607</v>
       </c>
       <c r="I4">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="J4">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.417953</v>
+        <v>16.13754733333333</v>
       </c>
       <c r="N4">
-        <v>49.25385900000001</v>
+        <v>48.41264200000001</v>
       </c>
       <c r="O4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="P4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="Q4">
-        <v>1016.490382810134</v>
+        <v>171.3058206685489</v>
       </c>
       <c r="R4">
-        <v>9148.413445291206</v>
+        <v>1541.75238601694</v>
       </c>
       <c r="S4">
-        <v>0.06909033127370627</v>
+        <v>0.03713399199262232</v>
       </c>
       <c r="T4">
-        <v>0.06909033127370628</v>
+        <v>0.03713399199262232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>150.283303</v>
       </c>
       <c r="I5">
-        <v>0.4062381250674705</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="J5">
-        <v>0.4062381250674706</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.19677366666667</v>
+        <v>14.65767833333333</v>
       </c>
       <c r="N5">
-        <v>213.590321</v>
+        <v>43.973035</v>
       </c>
       <c r="O5">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="P5">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
       <c r="Q5">
-        <v>3566.56210319003</v>
+        <v>734.2681047482895</v>
       </c>
       <c r="R5">
-        <v>32099.05892871026</v>
+        <v>6608.412942734605</v>
       </c>
       <c r="S5">
-        <v>0.2424174014676069</v>
+        <v>0.1591674224247007</v>
       </c>
       <c r="T5">
-        <v>0.242417401467607</v>
+        <v>0.1591674224247007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>150.283303</v>
       </c>
       <c r="I6">
-        <v>0.4062381250674705</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="J6">
-        <v>0.4062381250674706</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.69537100000001</v>
+        <v>31.695371</v>
       </c>
       <c r="N6">
-        <v>95.08611300000001</v>
+        <v>95.086113</v>
       </c>
       <c r="O6">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="P6">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="Q6">
         <v>1587.761681230138</v>
@@ -818,10 +818,10 @@
         <v>14289.85513107124</v>
       </c>
       <c r="S6">
-        <v>0.1079193491596243</v>
+        <v>0.3441793707119335</v>
       </c>
       <c r="T6">
-        <v>0.1079193491596243</v>
+        <v>0.3441793707119335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>150.283303</v>
       </c>
       <c r="I7">
-        <v>0.4062381250674705</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="J7">
-        <v>0.4062381250674706</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.417953</v>
+        <v>16.13754733333333</v>
       </c>
       <c r="N7">
-        <v>49.25385900000001</v>
+        <v>48.41264200000001</v>
       </c>
       <c r="O7">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="P7">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="Q7">
-        <v>822.448068446253</v>
+        <v>808.4013051907251</v>
       </c>
       <c r="R7">
-        <v>7402.032616016278</v>
+        <v>7275.611746716526</v>
       </c>
       <c r="S7">
-        <v>0.05590137444023929</v>
+        <v>0.1752372889410478</v>
       </c>
       <c r="T7">
-        <v>0.05590137444023931</v>
+        <v>0.1752372889410478</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.30520233333333</v>
+        <v>13.11220933333333</v>
       </c>
       <c r="H8">
-        <v>33.915607</v>
+        <v>39.336628</v>
       </c>
       <c r="I8">
-        <v>0.09167893121303822</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="J8">
-        <v>0.09167893121303823</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.19677366666667</v>
+        <v>14.65767833333333</v>
       </c>
       <c r="N8">
-        <v>213.590321</v>
+        <v>43.973035</v>
       </c>
       <c r="O8">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="P8">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
       <c r="Q8">
-        <v>804.8939317822053</v>
+        <v>192.1945466473312</v>
       </c>
       <c r="R8">
-        <v>7244.045386039847</v>
+        <v>1729.75091982598</v>
       </c>
       <c r="S8">
-        <v>0.05470822875204293</v>
+        <v>0.04166204468928469</v>
       </c>
       <c r="T8">
-        <v>0.05470822875204295</v>
+        <v>0.04166204468928469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.30520233333333</v>
+        <v>13.11220933333333</v>
       </c>
       <c r="H9">
-        <v>33.915607</v>
+        <v>39.336628</v>
       </c>
       <c r="I9">
-        <v>0.09167893121303822</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="J9">
-        <v>0.09167893121303823</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.69537100000001</v>
+        <v>31.695371</v>
       </c>
       <c r="N9">
-        <v>95.08611300000001</v>
+        <v>95.086113</v>
       </c>
       <c r="O9">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="P9">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="Q9">
-        <v>358.3225821850658</v>
+        <v>415.5963394496627</v>
       </c>
       <c r="R9">
-        <v>3224.903239665592</v>
+        <v>3740.367055046964</v>
       </c>
       <c r="S9">
-        <v>0.02435500258996569</v>
+        <v>0.09008888945546682</v>
       </c>
       <c r="T9">
-        <v>0.02435500258996569</v>
+        <v>0.09008888945546682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.30520233333333</v>
+        <v>13.11220933333333</v>
       </c>
       <c r="H10">
-        <v>33.915607</v>
+        <v>39.336628</v>
       </c>
       <c r="I10">
-        <v>0.09167893121303822</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="J10">
-        <v>0.09167893121303823</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.417953</v>
+        <v>16.13754733333333</v>
       </c>
       <c r="N10">
-        <v>49.25385900000001</v>
+        <v>48.41264200000001</v>
       </c>
       <c r="O10">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="P10">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="Q10">
-        <v>185.608280564157</v>
+        <v>211.5988987612418</v>
       </c>
       <c r="R10">
-        <v>1670.474525077413</v>
+        <v>1904.390088851176</v>
       </c>
       <c r="S10">
-        <v>0.01261569987102959</v>
+        <v>0.04586832940983811</v>
       </c>
       <c r="T10">
-        <v>0.01261569987102959</v>
+        <v>0.04586832940983811</v>
       </c>
     </row>
   </sheetData>
